--- a/BinaryLords_EMICalculator/Input/Input.xlsx
+++ b/BinaryLords_EMICalculator/Input/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\workspace\BinaryLords_EMICalculator\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BinaryLords_EMICalculator\BinaryLords_EMICalculator\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DBBADB-4151-40BD-AB5F-84263E763D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE05F031-96B3-4EEF-8180-43DF92F66105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2625" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeLoan" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,16 +71,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +380,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,14 +402,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1500000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>9.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
